--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value368.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value368.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.902081572240192</v>
+        <v>1.031337738037109</v>
       </c>
       <c r="B1">
-        <v>1.990498184307011</v>
+        <v>3.286305665969849</v>
       </c>
       <c r="C1">
-        <v>2.872022623227326</v>
+        <v>3.620364189147949</v>
       </c>
       <c r="D1">
-        <v>2.396664685149891</v>
+        <v>2.017948627471924</v>
       </c>
       <c r="E1">
-        <v>0.9483051612809904</v>
+        <v>1.173141121864319</v>
       </c>
     </row>
   </sheetData>
